--- a/ADARSH_KOTAGIRI/ReFramework_Dispatcher_Fruit_Project/Data/Config.xlsx
+++ b/ADARSH_KOTAGIRI/ReFramework_Dispatcher_Fruit_Project/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\UiPath\ReFramework_Dispatcher_Fruit_Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RPA-Developer-in-30-Days\ADARSH_KOTAGIRI\ReFramework_Dispatcher_Fruit_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,13 +157,13 @@
     <t>Excel_FilePath</t>
   </si>
   <si>
-    <t>Fruits.xlsx</t>
-  </si>
-  <si>
     <t>FruitsName</t>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Fruit.xlsx</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -589,10 +589,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -625,7 +625,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/ADARSH_KOTAGIRI/ReFramework_Dispatcher_Fruit_Project/Data/Config.xlsx
+++ b/ADARSH_KOTAGIRI/ReFramework_Dispatcher_Fruit_Project/Data/Config.xlsx
@@ -163,7 +163,7 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>Fruit.xlsx</t>
+    <t>FruitData.xlsx</t>
   </si>
 </sst>
 </file>
